--- a/biology/Zoologie/Gasteracantha_geminata/Gasteracantha_geminata.xlsx
+++ b/biology/Zoologie/Gasteracantha_geminata/Gasteracantha_geminata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gasteracantha geminata est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gasteracantha geminata est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Inde et au Sri Lanka[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Inde et au Sri Lanka.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gasteracantha geminata affectionne les grands buissons des forêts et des jardins[2]. Elle est également présente dans les rizières[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gasteracantha geminata affectionne les grands buissons des forêts et des jardins. Elle est également présente dans les rizières. 
 </t>
         </is>
       </c>
@@ -573,14 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce présente un fort dimorphisme sexuel[5] avec une femelle qui mesure de 6 à 8 mm et un mâle qui mesure de 5 à 7 mm[2].
-Le mâle décrit par Sankaran, Jobi et Sebastian en 2015 mesure 3,25 mm et la femelle 7,55 mm[5].
-Description de la femelle
-Le céphalothorax est légèrement plus long que large avec la partie céphalique plus élevée et la partie thoracique plus basse vers l'arrière. De couleur marron foncé, il est recouvert de poils gris. Le sternum est en forme de cœur avec la pointe vers l'arrière[2]. Il est d'une couleur marron foncé avec une grande tache jaunâtre[2] à blanche[5].
-Les pattes, marron foncé, sont fortes et courtes avec les fémurs avec des bandes transverses jaunâtres[2].
-L'abdomen est hexagonal et plus large que long[2]. Le dos comporte trois bandes transverses de couleur jaunâtre à blanche[2] et trois bandes transverses noires[5]. Les épines antérieures et médianes sont de même taille et très rapprochées[2] quasi assemblées[5],[6] avec des marques rouges[7]. Les épines postérieures sont plus petites[2], coniques et très pointues avec des marques jaunes[7]. Le dos présente plusieurs paires de sigilla[2] de forme ovale[7] réparties en dix sigilla sur le bord antérieur, quatre formant un quadrangle central et neuf réparties sur le bord postérieur[5]. Le ventre est tacheté de marques jaunes[8] à blanches[2] et présente trois paires de filières[9] placée au centre d'un anneau sclérotisé[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce présente un fort dimorphisme sexuel avec une femelle qui mesure de 6 à 8 mm et un mâle qui mesure de 5 à 7 mm.
+Le mâle décrit par Sankaran, Jobi et Sebastian en 2015 mesure 3,25 mm et la femelle 7,55 mm.
 </t>
         </is>
       </c>
@@ -606,14 +620,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comportement</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toile
-Le mâle et la femelle Gasteracantha geminata construisent leur toile dans des espaces ouverts entre 50 cm et 2 m de hauteur dans des buissons[5]. La toile est fortement géométrique, d'un diamètre de 20 à 55 cm de diamètre avec un trou en son centre[11], et construite obliquement par rapport au sol[5].
-La femelle reste cachée sous des feuilles à proximité de sa toile pendant la journée et la rejoint en soirée[2].
+          <t>Description de la femelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le céphalothorax est légèrement plus long que large avec la partie céphalique plus élevée et la partie thoracique plus basse vers l'arrière. De couleur marron foncé, il est recouvert de poils gris. Le sternum est en forme de cœur avec la pointe vers l'arrière. Il est d'une couleur marron foncé avec une grande tache jaunâtre à blanche.
+Les pattes, marron foncé, sont fortes et courtes avec les fémurs avec des bandes transverses jaunâtres.
+L'abdomen est hexagonal et plus large que long. Le dos comporte trois bandes transverses de couleur jaunâtre à blanche et trois bandes transverses noires. Les épines antérieures et médianes sont de même taille et très rapprochées quasi assemblées, avec des marques rouges. Les épines postérieures sont plus petites, coniques et très pointues avec des marques jaunes. Le dos présente plusieurs paires de sigilla de forme ovale réparties en dix sigilla sur le bord antérieur, quatre formant un quadrangle central et neuf réparties sur le bord postérieur. Le ventre est tacheté de marques jaunes à blanches et présente trois paires de filières placée au centre d'un anneau sclérotisé.
 </t>
         </is>
       </c>
@@ -639,12 +659,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Espèce similaire</t>
+          <t>Comportement</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gasteracantha geminata est similaire à Gasteracantha kuhli[5].
+          <t>Toile</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle et la femelle Gasteracantha geminata construisent leur toile dans des espaces ouverts entre 50 cm et 2 m de hauteur dans des buissons. La toile est fortement géométrique, d'un diamètre de 20 à 55 cm de diamètre avec un trou en son centre, et construite obliquement par rapport au sol.
+La femelle reste cachée sous des feuilles à proximité de sa toile pendant la journée et la rejoint en soirée.
 </t>
         </is>
       </c>
@@ -670,12 +697,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Systématique et taxinomie</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea geminata par Fabricius en 1798.
+          <t>Espèce similaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gasteracantha geminata est similaire à Gasteracantha kuhli.
 </t>
         </is>
       </c>
@@ -701,10 +730,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Systématique et taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea geminata par Fabricius en 1798.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gasteracantha_geminata</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gasteracantha_geminata</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Fabricius, 1798 : Supplementum entomologiae systematicae. Hafniae, p. 1-572 (texte intégral) (p. 292)).</t>
         </is>
